--- a/Week6/Output/numericalenrollment.xlsx
+++ b/Week6/Output/numericalenrollment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guanz\Desktop\JIW2\Week6\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{372C4CD8-9C7D-44A6-A2CA-9D7C718BC2A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD5744B-68E7-4B2C-B76D-AFD9E2E5695D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12547" windowHeight="7473" xr2:uid="{2376C0F6-0DC0-447D-A26B-9FEE84C64CC5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Individual Group Numerical Enrollment (MM) Per State for 2014 Benefit year</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -547,15 +553,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093DF1B7-6B05-4787-A246-1433B5FC75BE}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="6" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.76171875" customWidth="1"/>
+    <col min="10" max="10" width="9.3515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -578,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -600,8 +611,16 @@
       <c r="G2">
         <v>207079</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H2">
+        <f t="shared" ref="H2:H51" si="0">D2-B2</f>
+        <v>66745</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I51" si="1">F2-D2</f>
+        <v>-69179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -623,8 +642,16 @@
       <c r="G3">
         <v>2620695</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>589986</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>-114950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -646,8 +673,16 @@
       <c r="G4">
         <v>1194313</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>836971</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>429020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -669,8 +704,16 @@
       <c r="G5">
         <v>2061383</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>673676</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-289314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -692,8 +735,16 @@
       <c r="G6">
         <v>26857440</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>4560586</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>414933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -715,8 +766,16 @@
       <c r="G7">
         <v>2885662</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>331198</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>256633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -738,8 +797,16 @@
       <c r="G8">
         <v>1999166</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>296322</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>49527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -761,8 +828,16 @@
       <c r="G9">
         <v>1051179</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>10521</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>18281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -784,8 +859,16 @@
       <c r="G10">
         <v>97076</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-26394</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-1712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -807,8 +890,16 @@
       <c r="G11">
         <v>7276264</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>5576793</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>1204985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -830,8 +921,16 @@
       <c r="G12">
         <v>3322729</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1401745</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-204926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -853,8 +952,16 @@
       <c r="G13">
         <v>1564746</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>142128</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-43072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -876,8 +983,16 @@
       <c r="G14">
         <v>1899092</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-83854</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-289077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -899,8 +1014,16 @@
       <c r="G15">
         <v>903028</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-22458</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>23485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -922,8 +1045,16 @@
       <c r="G16">
         <v>6300593</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1126874</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-530965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -945,8 +1076,16 @@
       <c r="G17">
         <v>2251966</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>420047</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-197157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -968,8 +1107,16 @@
       <c r="G18">
         <v>1681865</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>292743</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-87463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -991,8 +1138,16 @@
       <c r="G19">
         <v>1500436</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-11657</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-130682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1014,8 +1169,16 @@
       <c r="G20">
         <v>2325110</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>585620</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-124553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1037,8 +1200,16 @@
       <c r="G21">
         <v>5578652</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1663221</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>843565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1060,8 +1231,16 @@
       <c r="G22">
         <v>3080204</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>952360</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>107094</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1083,8 +1262,16 @@
       <c r="G23">
         <v>772102</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>363087</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>85022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1106,8 +1293,16 @@
       <c r="G24">
         <v>5286520</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>377308</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-59736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1129,8 +1324,16 @@
       <c r="G25">
         <v>3186564</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>230990</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-613082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1152,8 +1355,16 @@
       <c r="G26">
         <v>2735873</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>767466</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-74217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1175,8 +1386,16 @@
       <c r="G27">
         <v>1055687</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>120729</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>105011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1198,8 +1417,16 @@
       <c r="G28">
         <v>547371</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>183448</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-76740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1221,8 +1448,16 @@
       <c r="G29">
         <v>3256241</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1430382</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-381221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -1244,8 +1479,16 @@
       <c r="G30">
         <v>714737</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>82535</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-44091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -1267,8 +1510,16 @@
       <c r="G31">
         <v>908060</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>83201</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>101567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -1290,8 +1541,16 @@
       <c r="G32">
         <v>850692</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>100777</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>497163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -1313,8 +1572,16 @@
       <c r="G33">
         <v>5388948</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>580285</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>381163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1336,8 +1603,16 @@
       <c r="G34">
         <v>622577</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>111112</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-61316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -1359,8 +1634,16 @@
       <c r="G35">
         <v>1081607</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>340238</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>72967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -1382,8 +1665,16 @@
       <c r="G36">
         <v>14154003</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1397815</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-1743901</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1405,8 +1696,16 @@
       <c r="G37">
         <v>8107161</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>391286</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-80327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1428,8 +1727,16 @@
       <c r="G38">
         <v>2145840</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>375057</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-8756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1451,8 +1758,16 @@
       <c r="G39">
         <v>2127881</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>446674</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-56702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -1474,8 +1789,16 @@
       <c r="G40">
         <v>7804965</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>730138</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-489233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1497,8 +1820,16 @@
       <c r="G41">
         <v>685330</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>70081</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>41023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -1520,8 +1851,16 @@
       <c r="G42">
         <v>1333001</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>861284</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>180138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -1543,8 +1882,16 @@
       <c r="G43">
         <v>631175</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>63113</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>-55845</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1566,8 +1913,16 @@
       <c r="G44">
         <v>3435427</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>722497</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>692454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1589,8 +1944,16 @@
       <c r="G45">
         <v>11461094</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>3835221</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>-172293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1612,8 +1975,16 @@
       <c r="G46">
         <v>2402838</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>383527</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>203423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1635,8 +2006,16 @@
       <c r="G47">
         <v>4256481</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1481468</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>-163973</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1658,8 +2037,16 @@
       <c r="G48">
         <v>3417053</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>168971</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-63778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1681,8 +2068,16 @@
       <c r="G49">
         <v>3082693</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>520705</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>-58146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -1704,8 +2099,16 @@
       <c r="G50">
         <v>506813</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>105918</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>-4752</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1726,6 +2129,96 @@
       </c>
       <c r="G51">
         <v>219669</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>56277</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>24064</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:E52" si="2">SUM(B2:B51)</f>
+        <v>163225530</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>184711287</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>198990293</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>172275049</v>
+      </c>
+      <c r="F52">
+        <f>SUM(F2:F51)</f>
+        <v>198430652</v>
+      </c>
+      <c r="G52">
+        <f>SUM(G2:G51)</f>
+        <v>168837081</v>
+      </c>
+      <c r="H52">
+        <f>D52-B52</f>
+        <v>35764763</v>
+      </c>
+      <c r="I52">
+        <f>F52-D52</f>
+        <v>-559641</v>
+      </c>
+      <c r="J52">
+        <f>E52-C52</f>
+        <v>-12436238</v>
+      </c>
+      <c r="K52">
+        <f>G52-E52</f>
+        <v>-3437968</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(B2:B51)</f>
+        <v>3264510.6</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:I53" si="3">AVERAGE(C2:C51)</f>
+        <v>3694225.74</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>3979805.86</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>3445500.98</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>3968613.04</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="3"/>
+        <v>3376741.62</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>715295.26</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>-11192.82</v>
       </c>
     </row>
   </sheetData>
